--- a/uploads/program.xlsx
+++ b/uploads/program.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="97">
   <si>
     <t>Meeting Room</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>Innovations</t>
+  </si>
+  <si>
+    <t>Learning Spaces should be inspirational, flexible, and well lit.</t>
+  </si>
+  <si>
+    <t>The administration functions should be dispersed throughout the campus to ensure student and staff interactions</t>
+  </si>
+  <si>
+    <t>Student Spaces should inspire creativity and create unique opportunities for interaction</t>
+  </si>
+  <si>
+    <t>Outdoor Spaces should celebrate the BCS campus's proximity to its wild, natural surroundings and provide educational experiences for the community</t>
+  </si>
+  <si>
+    <t>As one third of Brentwood's tripartite pedagogy, the athletic department should be highlighted in visually prominent spaces that add value to the community</t>
+  </si>
+  <si>
+    <t>Student housing should offer the comfort of a warm, communal home</t>
   </si>
 </sst>
 </file>
@@ -767,9 +785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="P114" sqref="P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,27 +870,27 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <f>AVERAGE(E3:E30)</f>
+        <f t="shared" ref="E2:J2" si="0">AVERAGE(E3:E30)</f>
         <v>6</v>
       </c>
       <c r="F2" s="6">
-        <f>AVERAGE(F3:F30)</f>
+        <f t="shared" si="0"/>
         <v>4.9642857142857144</v>
       </c>
       <c r="G2" s="6">
-        <f>AVERAGE(G3:G30)</f>
+        <f t="shared" si="0"/>
         <v>2.8928571428571428</v>
       </c>
       <c r="H2" s="6">
-        <f>AVERAGE(H3:H30)</f>
+        <f t="shared" si="0"/>
         <v>4.5714285714285712</v>
       </c>
       <c r="I2" s="6">
-        <f>AVERAGE(I3:I30)</f>
+        <f t="shared" si="0"/>
         <v>1.0714285714285714</v>
       </c>
       <c r="J2" s="6">
-        <f>AVERAGE(J3:J30)</f>
+        <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="K2" s="7">
@@ -880,7 +898,7 @@
         <v>13684.999999999998</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" ref="L2:L13" si="0">0.85*M2</f>
+        <f t="shared" ref="L2:L13" si="1">0.85*M2</f>
         <v>10115</v>
       </c>
       <c r="M2" s="1">
@@ -892,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -927,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">1.15*M3</f>
+        <f t="shared" ref="K3:K13" si="2">1.15*M3</f>
         <v>575</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>425</v>
       </c>
       <c r="M3">
@@ -941,7 +959,7 @@
         <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -976,11 +994,11 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="M4">
@@ -990,7 +1008,7 @@
         <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1025,11 +1043,11 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="M5">
@@ -1039,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1074,11 +1092,11 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="M6">
@@ -1088,7 +1106,7 @@
         <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1123,11 +1141,11 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="M7">
@@ -1137,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1172,11 +1190,11 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K12" si="2">1.15*M8</f>
+        <f t="shared" ref="K8:K12" si="3">1.15*M8</f>
         <v>575</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L12" si="3">0.85*M8</f>
+        <f t="shared" ref="L8:L12" si="4">0.85*M8</f>
         <v>425</v>
       </c>
       <c r="M8">
@@ -1186,7 +1204,7 @@
         <v>49</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1221,11 +1239,11 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
       <c r="M9">
@@ -1235,7 +1253,7 @@
         <v>49</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1270,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
       <c r="M10">
@@ -1284,7 +1302,7 @@
         <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1319,11 +1337,11 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
       <c r="M11">
@@ -1333,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1368,11 +1386,11 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
       <c r="M12">
@@ -1382,7 +1400,7 @@
         <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,11 +1435,11 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="M13">
@@ -1431,7 +1449,7 @@
         <v>49</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1466,11 +1484,11 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K29" si="4">1.15*M14</f>
+        <f t="shared" ref="K14:K29" si="5">1.15*M14</f>
         <v>575</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L29" si="5">0.85*M14</f>
+        <f t="shared" ref="L14:L29" si="6">0.85*M14</f>
         <v>425</v>
       </c>
       <c r="M14">
@@ -1480,7 +1498,7 @@
         <v>49</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,11 +1533,11 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>575</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="M15">
@@ -1529,7 +1547,7 @@
         <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1564,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K28" si="6">1.15*M16</f>
+        <f t="shared" ref="K16:K28" si="7">1.15*M16</f>
         <v>575</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L28" si="7">0.85*M16</f>
+        <f t="shared" ref="L16:L28" si="8">0.85*M16</f>
         <v>425</v>
       </c>
       <c r="M16">
@@ -1578,7 +1596,7 @@
         <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1613,11 +1631,11 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>575</v>
       </c>
       <c r="L17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="M17">
@@ -1627,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,11 +1680,11 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18" si="8">1.15*M18</f>
+        <f t="shared" ref="K18" si="9">1.15*M18</f>
         <v>575</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18" si="9">0.85*M18</f>
+        <f t="shared" ref="L18" si="10">0.85*M18</f>
         <v>425</v>
       </c>
       <c r="M18">
@@ -1676,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1711,11 +1729,11 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>575</v>
       </c>
       <c r="L19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="M19">
@@ -1725,7 +1743,7 @@
         <v>49</v>
       </c>
       <c r="P19" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1760,11 +1778,11 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K23" si="10">1.15*M20</f>
+        <f t="shared" ref="K20:K23" si="11">1.15*M20</f>
         <v>575</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L23" si="11">0.85*M20</f>
+        <f t="shared" ref="L20:L23" si="12">0.85*M20</f>
         <v>425</v>
       </c>
       <c r="M20">
@@ -1774,7 +1792,7 @@
         <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1809,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>575</v>
       </c>
       <c r="L21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>425</v>
       </c>
       <c r="M21">
@@ -1823,7 +1841,7 @@
         <v>49</v>
       </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1858,11 +1876,11 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>575</v>
       </c>
       <c r="L22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>425</v>
       </c>
       <c r="M22">
@@ -1872,7 +1890,7 @@
         <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1907,11 +1925,11 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>575</v>
       </c>
       <c r="L23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>425</v>
       </c>
       <c r="M23">
@@ -1921,7 +1939,7 @@
         <v>49</v>
       </c>
       <c r="P23" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1956,11 +1974,11 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K27" si="12">1.15*M24</f>
+        <f t="shared" ref="K24:K27" si="13">1.15*M24</f>
         <v>229.99999999999997</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L27" si="13">0.85*M24</f>
+        <f t="shared" ref="L24:L27" si="14">0.85*M24</f>
         <v>170</v>
       </c>
       <c r="M24">
@@ -1970,7 +1988,7 @@
         <v>49</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2005,11 +2023,11 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="M25">
@@ -2019,7 +2037,7 @@
         <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2054,11 +2072,11 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="M26">
@@ -2068,7 +2086,7 @@
         <v>49</v>
       </c>
       <c r="P26" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2103,11 +2121,11 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="M27">
@@ -2117,7 +2135,7 @@
         <v>49</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,11 +2170,11 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="M28">
@@ -2166,7 +2184,7 @@
         <v>49</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2201,11 +2219,11 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="M29">
@@ -2215,7 +2233,7 @@
         <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2250,11 +2268,11 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30" si="14">1.15*M30</f>
+        <f t="shared" ref="K30" si="15">1.15*M30</f>
         <v>229.99999999999997</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30" si="15">0.85*M30</f>
+        <f t="shared" ref="L30" si="16">0.85*M30</f>
         <v>170</v>
       </c>
       <c r="M30">
@@ -2264,7 +2282,7 @@
         <v>49</v>
       </c>
       <c r="P30" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2284,27 +2302,27 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="5">
-        <f>AVERAGE(E33:E84)</f>
+        <f t="shared" ref="E32:J32" si="17">AVERAGE(E33:E84)</f>
         <v>3.0769230769230771</v>
       </c>
       <c r="F32" s="5">
-        <f>AVERAGE(F33:F84)</f>
+        <f t="shared" si="17"/>
         <v>2.6346153846153846</v>
       </c>
       <c r="G32" s="5">
-        <f>AVERAGE(G33:G84)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="H32" s="5">
-        <f>AVERAGE(H33:H84)</f>
+        <f t="shared" si="17"/>
         <v>2.0769230769230771</v>
       </c>
       <c r="I32" s="5">
-        <f>AVERAGE(I33:I84)</f>
+        <f t="shared" si="17"/>
         <v>1.9038461538461537</v>
       </c>
       <c r="J32" s="5">
-        <f>AVERAGE(J33:J84)</f>
+        <f t="shared" si="17"/>
         <v>2.0192307692307692</v>
       </c>
       <c r="K32" s="1">
@@ -2324,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="P32" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2373,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2408,11 +2426,11 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K44" si="16">1.15*M34</f>
+        <f t="shared" ref="K34:K44" si="18">1.15*M34</f>
         <v>172.5</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L44" si="17">0.85*M34</f>
+        <f t="shared" ref="L34:L44" si="19">0.85*M34</f>
         <v>127.5</v>
       </c>
       <c r="M34">
@@ -2422,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2457,11 +2475,11 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M35">
@@ -2471,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2506,11 +2524,11 @@
         <v>2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M36">
@@ -2520,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2555,11 +2573,11 @@
         <v>2</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M37">
@@ -2569,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2604,11 +2622,11 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M38">
@@ -2618,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2653,11 +2671,11 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M39">
@@ -2667,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="P39" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2702,11 +2720,11 @@
         <v>2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M40">
@@ -2716,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="P40" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2751,11 +2769,11 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M41">
@@ -2765,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2800,11 +2818,11 @@
         <v>2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M42">
@@ -2814,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="P42" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2849,11 +2867,11 @@
         <v>2</v>
       </c>
       <c r="K43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M43">
@@ -2863,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2898,11 +2916,11 @@
         <v>2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>172.5</v>
       </c>
       <c r="L44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
       <c r="M44">
@@ -2912,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="P44" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2947,11 +2965,11 @@
         <v>2</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="18">1.15*M45</f>
+        <f t="shared" ref="K45:K54" si="20">1.15*M45</f>
         <v>172.5</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:L54" si="19">0.85*M45</f>
+        <f t="shared" ref="L45:L54" si="21">0.85*M45</f>
         <v>127.5</v>
       </c>
       <c r="M45">
@@ -2961,7 +2979,7 @@
         <v>7</v>
       </c>
       <c r="P45" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2996,11 +3014,11 @@
         <v>2</v>
       </c>
       <c r="K46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M46">
@@ -3010,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="P46" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3045,11 +3063,11 @@
         <v>2</v>
       </c>
       <c r="K47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>57.499999999999993</v>
       </c>
       <c r="L47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>42.5</v>
       </c>
       <c r="M47">
@@ -3059,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="P47" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3094,11 +3112,11 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M48">
@@ -3108,7 +3126,7 @@
         <v>7</v>
       </c>
       <c r="P48" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3143,11 +3161,11 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M49">
@@ -3157,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="P49" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3192,11 +3210,11 @@
         <v>2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M50">
@@ -3206,7 +3224,7 @@
         <v>7</v>
       </c>
       <c r="P50" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3241,11 +3259,11 @@
         <v>2</v>
       </c>
       <c r="K51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M51">
@@ -3255,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="P51" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3290,11 +3308,11 @@
         <v>2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M52">
@@ -3304,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="P52" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3339,11 +3357,11 @@
         <v>2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M53">
@@ -3353,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="P53" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3388,11 +3406,11 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.5</v>
       </c>
       <c r="L54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>127.5</v>
       </c>
       <c r="M54">
@@ -3402,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3437,11 +3455,11 @@
         <v>2</v>
       </c>
       <c r="K55">
-        <f t="shared" ref="K55:K84" si="20">1.15*M55</f>
+        <f t="shared" ref="K55:K84" si="22">1.15*M55</f>
         <v>172.5</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55:L84" si="21">0.85*M55</f>
+        <f t="shared" ref="L55:L84" si="23">0.85*M55</f>
         <v>127.5</v>
       </c>
       <c r="M55">
@@ -3451,7 +3469,7 @@
         <v>7</v>
       </c>
       <c r="P55" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3486,11 +3504,11 @@
         <v>2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M56">
@@ -3500,7 +3518,7 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3535,11 +3553,11 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M57">
@@ -3549,7 +3567,7 @@
         <v>7</v>
       </c>
       <c r="P57" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3584,11 +3602,11 @@
         <v>2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M58">
@@ -3598,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="P58" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3633,11 +3651,11 @@
         <v>2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M59">
@@ -3647,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="P59" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3682,11 +3700,11 @@
         <v>2</v>
       </c>
       <c r="K60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M60">
@@ -3696,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="P60" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3731,11 +3749,11 @@
         <v>2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M61">
@@ -3745,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="P61" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3780,11 +3798,11 @@
         <v>2</v>
       </c>
       <c r="K62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M62">
@@ -3794,7 +3812,7 @@
         <v>7</v>
       </c>
       <c r="P62" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3829,11 +3847,11 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M63">
@@ -3843,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="P63" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3878,11 +3896,11 @@
         <v>2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M64">
@@ -3892,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="P64" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3927,11 +3945,11 @@
         <v>2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M65">
@@ -3941,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="P65" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3976,11 +3994,11 @@
         <v>2</v>
       </c>
       <c r="K66">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M66">
@@ -3990,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="P66" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4025,11 +4043,11 @@
         <v>2</v>
       </c>
       <c r="K67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L67">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M67">
@@ -4039,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="P67" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4074,11 +4092,11 @@
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M68">
@@ -4088,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="P68" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4123,11 +4141,11 @@
         <v>2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M69">
@@ -4137,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="P69" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4172,11 +4190,11 @@
         <v>2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M70">
@@ -4186,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="P70" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4221,11 +4239,11 @@
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M71">
@@ -4235,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="P71" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4270,11 +4288,11 @@
         <v>2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M72">
@@ -4284,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="P72" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4319,11 +4337,11 @@
         <v>2</v>
       </c>
       <c r="K73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M73">
@@ -4333,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="P73" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4368,11 +4386,11 @@
         <v>2</v>
       </c>
       <c r="K74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M74">
@@ -4382,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="P74" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4417,11 +4435,11 @@
         <v>2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M75">
@@ -4431,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="P75" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4466,11 +4484,11 @@
         <v>2</v>
       </c>
       <c r="K76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M76">
@@ -4480,7 +4498,7 @@
         <v>7</v>
       </c>
       <c r="P76" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4515,11 +4533,11 @@
         <v>2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M77">
@@ -4529,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="P77" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4564,11 +4582,11 @@
         <v>2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M78">
@@ -4578,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="P78" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4613,11 +4631,11 @@
         <v>2</v>
       </c>
       <c r="K79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M79">
@@ -4627,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="P79" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4662,11 +4680,11 @@
         <v>2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M80">
@@ -4676,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="P80" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4711,11 +4729,11 @@
         <v>2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M81">
@@ -4725,7 +4743,7 @@
         <v>7</v>
       </c>
       <c r="P81" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4760,11 +4778,11 @@
         <v>2</v>
       </c>
       <c r="K82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M82">
@@ -4774,7 +4792,7 @@
         <v>7</v>
       </c>
       <c r="P82" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4809,11 +4827,11 @@
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M83">
@@ -4823,7 +4841,7 @@
         <v>7</v>
       </c>
       <c r="P83" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4858,11 +4876,11 @@
         <v>2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>172.5</v>
       </c>
       <c r="L84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>127.5</v>
       </c>
       <c r="M84">
@@ -4872,7 +4890,7 @@
         <v>7</v>
       </c>
       <c r="P84" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -4892,27 +4910,27 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="5">
-        <f>AVERAGE(E87:E93)</f>
+        <f t="shared" ref="E86:J86" si="24">AVERAGE(E87:E93)</f>
         <v>4.5714285714285712</v>
       </c>
       <c r="F86" s="5">
-        <f>AVERAGE(F87:F93)</f>
+        <f t="shared" si="24"/>
         <v>3.7142857142857144</v>
       </c>
       <c r="G86" s="5">
-        <f>AVERAGE(G87:G93)</f>
+        <f t="shared" si="24"/>
         <v>3.1428571428571428</v>
       </c>
       <c r="H86" s="5">
-        <f>AVERAGE(H87:H93)</f>
+        <f t="shared" si="24"/>
         <v>4.8571428571428568</v>
       </c>
       <c r="I86" s="5">
-        <f>AVERAGE(I87:I93)</f>
+        <f t="shared" si="24"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="J86" s="5">
-        <f>AVERAGE(J87:J93)</f>
+        <f t="shared" si="24"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="K86" s="1">
@@ -4932,7 +4950,7 @@
         <v>47</v>
       </c>
       <c r="P86" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -4982,7 +5000,7 @@
         <v>47</v>
       </c>
       <c r="P87" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5017,11 +5035,11 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" ref="K88:K93" si="22">1.15*M88</f>
+        <f t="shared" ref="K88:K93" si="25">1.15*M88</f>
         <v>229.99999999999997</v>
       </c>
       <c r="L88">
-        <f t="shared" ref="L88:L93" si="23">0.85*M88</f>
+        <f t="shared" ref="L88:L93" si="26">0.85*M88</f>
         <v>170</v>
       </c>
       <c r="M88" s="2">
@@ -5032,7 +5050,7 @@
         <v>47</v>
       </c>
       <c r="P88" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5067,11 +5085,11 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>229.99999999999997</v>
       </c>
       <c r="L89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>170</v>
       </c>
       <c r="M89" s="2">
@@ -5082,7 +5100,7 @@
         <v>47</v>
       </c>
       <c r="P89" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5117,11 +5135,11 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>287.5</v>
       </c>
       <c r="L90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>212.5</v>
       </c>
       <c r="M90" s="2">
@@ -5132,7 +5150,7 @@
         <v>47</v>
       </c>
       <c r="P90" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5167,11 +5185,11 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>517.5</v>
       </c>
       <c r="L91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>382.5</v>
       </c>
       <c r="M91" s="2">
@@ -5182,7 +5200,7 @@
         <v>47</v>
       </c>
       <c r="P91" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5217,11 +5235,11 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1150</v>
       </c>
       <c r="L92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>850</v>
       </c>
       <c r="M92" s="2">
@@ -5232,7 +5250,7 @@
         <v>47</v>
       </c>
       <c r="P92" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5267,11 +5285,11 @@
         <v>2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>575</v>
       </c>
       <c r="L93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>425</v>
       </c>
       <c r="M93" s="2">
@@ -5282,7 +5300,7 @@
         <v>47</v>
       </c>
       <c r="P93" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -5314,15 +5332,15 @@
         <v>5.75</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" ref="H95:J95" si="24">AVERAGE(H96:H99)</f>
+        <f t="shared" ref="H95:J95" si="27">AVERAGE(H96:H99)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="K95" s="1">
@@ -5342,7 +5360,7 @@
         <v>51</v>
       </c>
       <c r="P95" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5392,7 +5410,7 @@
         <v>51</v>
       </c>
       <c r="P96" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5442,7 +5460,7 @@
         <v>51</v>
       </c>
       <c r="P97" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5475,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="K98">
-        <f t="shared" ref="K98:K99" si="25">1.15*M98</f>
+        <f t="shared" ref="K98:K99" si="28">1.15*M98</f>
         <v>1150</v>
       </c>
       <c r="L98">
@@ -5490,7 +5508,7 @@
         <v>51</v>
       </c>
       <c r="P98" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5525,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>517.5</v>
       </c>
       <c r="L99">
@@ -5540,7 +5558,7 @@
         <v>51</v>
       </c>
       <c r="P99" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5560,27 +5578,27 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="5">
-        <f>AVERAGE(E102:E107)</f>
+        <f t="shared" ref="E101:J101" si="29">AVERAGE(E102:E107)</f>
         <v>5.333333333333333</v>
       </c>
       <c r="F101" s="5">
-        <f>AVERAGE(F102:F107)</f>
+        <f t="shared" si="29"/>
         <v>5.833333333333333</v>
       </c>
       <c r="G101" s="5">
-        <f>AVERAGE(G102:G107)</f>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="H101" s="5">
-        <f>AVERAGE(H102:H107)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I101" s="5">
-        <f>AVERAGE(I102:I107)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="J101" s="5">
-        <f>AVERAGE(J102:J107)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K101" s="1">
@@ -5588,7 +5606,7 @@
         <v>4945</v>
       </c>
       <c r="L101" s="1">
-        <f>0.85*M101</f>
+        <f t="shared" ref="L101:L107" si="30">0.85*M101</f>
         <v>3655</v>
       </c>
       <c r="M101" s="1">
@@ -5600,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="P101" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5635,11 +5653,11 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <f>1.15*M102</f>
+        <f t="shared" ref="K102:K107" si="31">1.15*M102</f>
         <v>287.5</v>
       </c>
       <c r="L102">
-        <f>0.85*M102</f>
+        <f t="shared" si="30"/>
         <v>212.5</v>
       </c>
       <c r="M102" s="2">
@@ -5650,7 +5668,7 @@
         <v>8</v>
       </c>
       <c r="P102" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5685,11 +5703,11 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f>1.15*M103</f>
+        <f t="shared" si="31"/>
         <v>172.5</v>
       </c>
       <c r="L103">
-        <f>0.85*M103</f>
+        <f t="shared" si="30"/>
         <v>127.5</v>
       </c>
       <c r="M103" s="2">
@@ -5700,7 +5718,7 @@
         <v>8</v>
       </c>
       <c r="P103" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5735,11 +5753,11 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <f>1.15*M104</f>
+        <f t="shared" si="31"/>
         <v>919.99999999999989</v>
       </c>
       <c r="L104">
-        <f>0.85*M104</f>
+        <f t="shared" si="30"/>
         <v>680</v>
       </c>
       <c r="M104" s="2">
@@ -5750,7 +5768,7 @@
         <v>8</v>
       </c>
       <c r="P104" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5785,11 +5803,11 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f>1.15*M105</f>
+        <f t="shared" si="31"/>
         <v>575</v>
       </c>
       <c r="L105">
-        <f>0.85*M105</f>
+        <f t="shared" si="30"/>
         <v>425</v>
       </c>
       <c r="M105" s="2">
@@ -5800,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="P105" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5835,11 +5853,11 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <f>1.15*M106</f>
+        <f t="shared" si="31"/>
         <v>1150</v>
       </c>
       <c r="L106">
-        <f>0.85*M106</f>
+        <f t="shared" si="30"/>
         <v>850</v>
       </c>
       <c r="M106" s="2">
@@ -5850,7 +5868,7 @@
         <v>8</v>
       </c>
       <c r="P106" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5885,11 +5903,11 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <f>1.15*M107</f>
+        <f t="shared" si="31"/>
         <v>1839.9999999999998</v>
       </c>
       <c r="L107">
-        <f>0.85*M107</f>
+        <f t="shared" si="30"/>
         <v>1360</v>
       </c>
       <c r="M107" s="2">
@@ -5900,7 +5918,7 @@
         <v>8</v>
       </c>
       <c r="P107" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -5932,15 +5950,15 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" ref="H109:J109" si="26">AVERAGE(H110:H112)</f>
+        <f t="shared" ref="H109:J109" si="32">AVERAGE(H110:H112)</f>
         <v>2</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="K109" s="1">
@@ -5960,7 +5978,7 @@
         <v>50</v>
       </c>
       <c r="P109" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6009,7 +6027,7 @@
         <v>50</v>
       </c>
       <c r="P110" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6044,11 +6062,11 @@
         <v>2</v>
       </c>
       <c r="K111">
-        <f t="shared" ref="K111:K112" si="27">1.15*M111</f>
+        <f t="shared" ref="K111:K112" si="33">1.15*M111</f>
         <v>287.5</v>
       </c>
       <c r="L111">
-        <f t="shared" ref="L111:L112" si="28">0.85*M111</f>
+        <f t="shared" ref="L111:L112" si="34">0.85*M111</f>
         <v>212.5</v>
       </c>
       <c r="M111">
@@ -6058,7 +6076,7 @@
         <v>50</v>
       </c>
       <c r="P111" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6093,11 +6111,11 @@
         <v>2</v>
       </c>
       <c r="K112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>287.5</v>
       </c>
       <c r="L112">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>212.5</v>
       </c>
       <c r="M112">
@@ -6107,7 +6125,7 @@
         <v>50</v>
       </c>
       <c r="P112" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -6139,15 +6157,15 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" ref="H114:J114" si="29">AVERAGE(H115:H117)</f>
+        <f t="shared" ref="H114:J114" si="35">AVERAGE(H115:H117)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="K114" s="1">
@@ -6252,11 +6270,11 @@
         <v>3</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116:K117" si="30">1.15*M116</f>
+        <f t="shared" ref="K116:K117" si="36">1.15*M116</f>
         <v>172.5</v>
       </c>
       <c r="L116">
-        <f t="shared" ref="L116:L117" si="31">0.85*M116</f>
+        <f t="shared" ref="L116:L117" si="37">0.85*M116</f>
         <v>127.5</v>
       </c>
       <c r="M116" s="2">
@@ -6302,11 +6320,11 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>172.5</v>
       </c>
       <c r="L117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>127.5</v>
       </c>
       <c r="M117" s="2">
